--- a/backend/indexes/management/documents/t_indexes_actual.xlsx
+++ b/backend/indexes/management/documents/t_indexes_actual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahir\OneDrive\Desktop\Codes\YKHT\backend\indexes\management\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B4857-3292-46E4-89D6-E263933CB983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF8722-658F-4059-97FD-F9ACD195C692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -208,11 +208,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEEECE1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -227,6 +236,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,10 +546,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1751,14 +1763,14 @@
         <v>2151.06</v>
       </c>
       <c r="L27" s="1">
-        <v>32.354900000000001</v>
+        <v>32.793534090900003</v>
       </c>
       <c r="M27" s="1">
-        <v>29.9909</v>
+        <v>30.065711363599998</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
-        <v>45292;1984.02;1155.43;4760.87;6229.53;6378.9;2279.58;2361.69;1527.91;3035.59;2151.06;32.3549;29.9909</v>
+        <v>45292;1984.02;1155.43;4760.87;6229.53;6378.9;2279.58;2361.69;1527.91;3035.59;2151.06;32.7935340909;30.0657113636</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -1796,14 +1808,14 @@
         <v>2212.02</v>
       </c>
       <c r="L28" s="1">
-        <v>32.938699999999997</v>
+        <v>33.213654761900003</v>
       </c>
       <c r="M28" s="1">
-        <v>30.331800000000001</v>
+        <v>30.773007142899999</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="0"/>
-        <v>45323;2073.88;1204.41;4998.52;6286.84;7040.01;2394.26;2427.77;1560.47;3149.03;2212.02;32.9387;30.3318</v>
+        <v>45323;2073.88;1204.41;4998.52;6286.84;7040.01;2394.26;2427.77;1560.47;3149.03;2212.02;33.2136547619;30.7730071429</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -1841,14 +1853,14 @@
         <v>2274.7800000000002</v>
       </c>
       <c r="L29" s="1">
-        <v>33.5306</v>
+        <v>34.794269047599997</v>
       </c>
       <c r="M29" s="1">
-        <v>30.872199999999999</v>
+        <v>32.011633333299997</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="0"/>
-        <v>45352;2139.47;1236.01;5195.92;6971.02;6959.87;2417.47;2486.08;1586.13;3252.79;2274.78;33.5306;30.8722</v>
+        <v>45352;2139.47;1236.01;5195.92;6971.02;6959.87;2417.47;2486.08;1586.13;3252.79;2274.78;34.7942690476;32.0116333333</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -1886,14 +1898,14 @@
         <v>2309.67</v>
       </c>
       <c r="L30" s="1">
-        <v>33.807299999999998</v>
+        <v>34.633211111111002</v>
       </c>
       <c r="M30" s="1">
-        <v>31.211099999999998</v>
+        <v>32.271327777777998</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
-        <v>45383;2207.5;1267.17;5265.54;7523.25;7083.25;2500.49;2540.45;1588.37;3369.98;2309.67;33.8073;31.2111</v>
+        <v>45383;2207.5;1267.17;5265.54;7523.25;7083.25;2500.49;2540.45;1588.37;3369.98;2309.67;34.633211111111;32.271327777778</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -1931,14 +1943,14 @@
         <v>2356.09</v>
       </c>
       <c r="L31" s="1">
-        <v>34.890999999999998</v>
+        <v>34.782431818181998</v>
       </c>
       <c r="M31" s="1">
-        <v>32.191800000000001</v>
+        <v>32.189895454545002</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
-        <v>45413;2281.85;1276.14;5199.87;7491.56;6712.83;2518.42;2604.07;1588.11;3435.96;2356.09;34.891;32.1918</v>
+        <v>45413;2281.85;1276.14;5199.87;7491.56;6712.83;2518.42;2604.07;1588.11;3435.96;2356.09;34.782431818182;32.189895454545</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -1976,14 +1988,14 @@
         <v>2393.21</v>
       </c>
       <c r="L32" s="1">
-        <v>35.640599999999999</v>
+        <v>34.981735294118003</v>
       </c>
       <c r="M32" s="5">
-        <v>32.5212</v>
+        <v>32.462747058824</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="0"/>
-        <v>45444;2319.29;1297.93;5157.5;7419.51;6660.9;2576.92;2608.56;1590.88;3483.25;2393.21;35.6406;32.5212</v>
+        <v>45444;2319.29;1297.93;5157.5;7419.51;6660.9;2576.92;2608.56;1590.88;3483.25;2393.21;34.981735294118;32.462747058824</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -2021,14 +2033,59 @@
         <v>2436.29</v>
       </c>
       <c r="L33" s="4">
-        <v>36.25</v>
+        <v>35.576540909091001</v>
       </c>
       <c r="M33">
-        <v>32.894500000000001</v>
+        <v>32.835327272727</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="0"/>
-        <v>45474;2394.1;1324.1;5170.44;7587.58;7045.82;2609.4;2664.49;1671.57;3550.88;2436.29;36.25;32.8945</v>
+        <v>45474;2394.1;1324.1;5170.44;7587.58;7045.82;2609.4;2664.49;1671.57;3550.88;2436.29;35.576540909091;32.835327272727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B34">
+        <v>2453.34</v>
+      </c>
+      <c r="C34">
+        <v>1380.27</v>
+      </c>
+      <c r="D34">
+        <v>5184.47</v>
+      </c>
+      <c r="E34">
+        <v>7626.26</v>
+      </c>
+      <c r="F34">
+        <v>6727.97</v>
+      </c>
+      <c r="G34">
+        <v>2702.43</v>
+      </c>
+      <c r="H34">
+        <v>2782.07</v>
+      </c>
+      <c r="I34">
+        <v>1676.35</v>
+      </c>
+      <c r="J34">
+        <v>3610.51</v>
+      </c>
+      <c r="K34">
+        <v>2525.85</v>
+      </c>
+      <c r="L34" s="4">
+        <v>36.906657142857</v>
+      </c>
+      <c r="M34" s="6">
+        <v>33.560780952381002</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" ref="N34" si="1">+_xlfn.TEXTJOIN(";",2,A34:M34)</f>
+        <v>45505;2453.34;1380.27;5184.47;7626.26;6727.97;2702.43;2782.07;1676.35;3610.51;2525.85;36.906657142857;33.560780952381</v>
       </c>
     </row>
   </sheetData>

--- a/backend/indexes/management/documents/t_indexes_actual.xlsx
+++ b/backend/indexes/management/documents/t_indexes_actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahir\OneDrive\Desktop\Codes\YKHT\backend\indexes\management\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF8722-658F-4059-97FD-F9ACD195C692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4466B8-18FE-4C54-A099-55D56200F284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t_Endeks_Veri" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>r_usd_try</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>b06_wood</t>
+  </si>
+  <si>
+    <t>37.72</t>
+  </si>
+  <si>
+    <t>33.97</t>
   </si>
 </sst>
 </file>
@@ -546,10 +552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="N35" sqref="N1:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2084,8 +2090,53 @@
         <v>33.560780952381002</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" ref="N34" si="1">+_xlfn.TEXTJOIN(";",2,A34:M34)</f>
+        <f t="shared" ref="N34:N35" si="1">+_xlfn.TEXTJOIN(";",2,A34:M34)</f>
         <v>45505;2453.34;1380.27;5184.47;7626.26;6727.97;2702.43;2782.07;1676.35;3610.51;2525.85;36.906657142857;33.560780952381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B35">
+        <v>2526.16</v>
+      </c>
+      <c r="C35">
+        <v>1370.47</v>
+      </c>
+      <c r="D35">
+        <v>5279.37</v>
+      </c>
+      <c r="E35">
+        <v>8268.83</v>
+      </c>
+      <c r="F35">
+        <v>6354.29</v>
+      </c>
+      <c r="G35">
+        <v>2712.29</v>
+      </c>
+      <c r="H35">
+        <v>2770.04</v>
+      </c>
+      <c r="I35">
+        <v>1675.33</v>
+      </c>
+      <c r="J35">
+        <v>3659.84</v>
+      </c>
+      <c r="K35">
+        <v>2558.9899999999998</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v>45536;2526.16;1370.47;5279.37;8268.83;6354.29;2712.29;2770.04;1675.33;3659.84;2558.99;37.72;33.97</v>
       </c>
     </row>
   </sheetData>
